--- a/biology/Zoologie/Grimpar_de_Perrot/Grimpar_de_Perrot.xlsx
+++ b/biology/Zoologie/Grimpar_de_Perrot/Grimpar_de_Perrot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hylexetastes perrotii
 Le Grimpar de Perrot (Hylexetastes perrotii) est une espèce d'oiseaux de la famille des Furnariidae. Son aire s'étend à travers le plateau des Guyanes et l'Est de l'Amazonie.
@@ -512,9 +524,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Hylexetastes perrotii a été décrite pour la première fois en 1844 par l'ornithologue français Frédéric de Lafresnaye[2] (1783-1861) sous le protonyme Dendrocolaptes perrotii[1],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Hylexetastes perrotii a été décrite pour la première fois en 1844 par l'ornithologue français Frédéric de Lafresnaye (1783-1861) sous le protonyme Dendrocolaptes perrotii,.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans sa description de 1884, l'auteur indique que cet oiseau mesure environ 25 cm de longueur totale[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans sa description de 1884, l'auteur indique que cet oiseau mesure environ 25 cm de longueur totale.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, perrotii, lui a été donnée en l'honneur de M. Perrot, alors préparateur au Muséum national d'histoire naturelle à Paris[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, perrotii, lui a été donnée en l'honneur de M. Perrot, alors préparateur au Muséum national d'histoire naturelle à Paris.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(fr + la) de Lafresnaye, « Nouvelles espèces d'oiseaux de Colombie », Revue zoologique, Paris, Inconnu, vol. 1844,‎ mars 1844, p. 80-83 (ISSN 1259-6493 et 2419-4816, lire en ligne)</t>
         </is>
